--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vcan-Egfr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vcan-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H2">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I2">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J2">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.08032284433198</v>
+        <v>1.57413</v>
       </c>
       <c r="N2">
-        <v>1.08032284433198</v>
+        <v>4.72239</v>
       </c>
       <c r="O2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q2">
-        <v>7.812506081169001</v>
+        <v>13.9749424915</v>
       </c>
       <c r="R2">
-        <v>7.812506081169001</v>
+        <v>125.7744824235</v>
       </c>
       <c r="S2">
-        <v>0.0005303741337032617</v>
+        <v>0.0005594185512285155</v>
       </c>
       <c r="T2">
-        <v>0.0005303741337032617</v>
+        <v>0.0005594185512285154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H3">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I3">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J3">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4982525109528</v>
+        <v>62.503947</v>
       </c>
       <c r="N3">
-        <v>62.4982525109528</v>
+        <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.8293959923635609</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P3">
-        <v>0.8293959923635609</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q3">
-        <v>451.9648736171789</v>
+        <v>554.9027493388502</v>
       </c>
       <c r="R3">
-        <v>451.9648736171789</v>
+        <v>4994.124744049651</v>
       </c>
       <c r="S3">
-        <v>0.03068291734028923</v>
+        <v>0.02221282071798639</v>
       </c>
       <c r="T3">
-        <v>0.03068291734028923</v>
+        <v>0.02221282071798639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H4">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I4">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J4">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>11.7753606251016</v>
+        <v>0.182903</v>
       </c>
       <c r="N4">
-        <v>11.7753606251016</v>
+        <v>0.548709</v>
       </c>
       <c r="O4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q4">
-        <v>85.15517095118878</v>
+        <v>1.623791495316667</v>
       </c>
       <c r="R4">
-        <v>85.15517095118878</v>
+        <v>14.61412345785</v>
       </c>
       <c r="S4">
-        <v>0.005781000303148809</v>
+        <v>6.500055984915425E-05</v>
       </c>
       <c r="T4">
-        <v>0.005781000303148809</v>
+        <v>6.500055984915424E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>154.748462816361</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H5">
-        <v>154.748462816361</v>
+        <v>26.63365</v>
       </c>
       <c r="I5">
-        <v>0.7916336610130938</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J5">
-        <v>0.7916336610130938</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.08032284433198</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N5">
-        <v>1.08032284433198</v>
+        <v>0.281423</v>
       </c>
       <c r="O5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q5">
-        <v>167.1782995057728</v>
+        <v>0.832813520438889</v>
       </c>
       <c r="R5">
-        <v>167.1782995057728</v>
+        <v>7.49532168395</v>
       </c>
       <c r="S5">
-        <v>0.01134937302488361</v>
+        <v>3.333762076880192E-05</v>
       </c>
       <c r="T5">
-        <v>0.01134937302488361</v>
+        <v>3.333762076880192E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.748462816361</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H6">
-        <v>154.748462816361</v>
+        <v>26.63365</v>
       </c>
       <c r="I6">
-        <v>0.7916336610130938</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J6">
-        <v>0.7916336610130938</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.4982525109528</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N6">
-        <v>62.4982525109528</v>
+        <v>40.155898</v>
       </c>
       <c r="O6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q6">
-        <v>9671.508504778722</v>
+        <v>118.8331258630778</v>
       </c>
       <c r="R6">
-        <v>9671.508504778722</v>
+        <v>1069.4981327677</v>
       </c>
       <c r="S6">
-        <v>0.6565777858643537</v>
+        <v>0.004756903661586621</v>
       </c>
       <c r="T6">
-        <v>0.6565777858643537</v>
+        <v>0.00475690366158662</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>154.748462816361</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H7">
-        <v>154.748462816361</v>
+        <v>466.172821</v>
       </c>
       <c r="I7">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J7">
-        <v>0.7916336610130938</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7753606251016</v>
+        <v>1.57413</v>
       </c>
       <c r="N7">
-        <v>11.7753606251016</v>
+        <v>4.72239</v>
       </c>
       <c r="O7">
-        <v>0.1562673597855136</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P7">
-        <v>0.1562673597855136</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q7">
-        <v>1822.218955842776</v>
+        <v>244.60554090691</v>
       </c>
       <c r="R7">
-        <v>1822.218955842776</v>
+        <v>2201.44986816219</v>
       </c>
       <c r="S7">
-        <v>0.1237065021238565</v>
+        <v>0.009791587865197975</v>
       </c>
       <c r="T7">
-        <v>0.1237065021238565</v>
+        <v>0.009791587865197975</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.89880376558533</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H8">
-        <v>5.89880376558533</v>
+        <v>466.172821</v>
       </c>
       <c r="I8">
-        <v>0.03017601296685985</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J8">
-        <v>0.03017601296685985</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.08032284433198</v>
+        <v>62.503947</v>
       </c>
       <c r="N8">
-        <v>1.08032284433198</v>
+        <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.01433664785092544</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P8">
-        <v>0.01433664785092544</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q8">
-        <v>6.372612462193338</v>
+        <v>9712.547098874829</v>
       </c>
       <c r="R8">
-        <v>6.372612462193338</v>
+        <v>87412.92388987346</v>
       </c>
       <c r="S8">
-        <v>0.0004326228714508295</v>
+        <v>0.3887943746527779</v>
       </c>
       <c r="T8">
-        <v>0.0004326228714508295</v>
+        <v>0.388794374652778</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.89880376558533</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H9">
-        <v>5.89880376558533</v>
+        <v>466.172821</v>
       </c>
       <c r="I9">
-        <v>0.03017601296685985</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J9">
-        <v>0.03017601296685985</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>62.4982525109528</v>
+        <v>0.182903</v>
       </c>
       <c r="N9">
-        <v>62.4982525109528</v>
+        <v>0.548709</v>
       </c>
       <c r="O9">
-        <v>0.8293959923635609</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P9">
-        <v>0.8293959923635609</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q9">
-        <v>368.6649272541112</v>
+        <v>28.42146915978767</v>
       </c>
       <c r="R9">
-        <v>368.6649272541112</v>
+        <v>255.793222438089</v>
       </c>
       <c r="S9">
-        <v>0.02502786422022441</v>
+        <v>0.00113771467115696</v>
       </c>
       <c r="T9">
-        <v>0.02502786422022441</v>
+        <v>0.00113771467115696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.89880376558533</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H10">
-        <v>5.89880376558533</v>
+        <v>466.172821</v>
       </c>
       <c r="I10">
-        <v>0.03017601296685985</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J10">
-        <v>0.03017601296685985</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>11.7753606251016</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N10">
-        <v>11.7753606251016</v>
+        <v>0.281423</v>
       </c>
       <c r="O10">
-        <v>0.1562673597855136</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P10">
-        <v>0.1562673597855136</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q10">
-        <v>69.46054159647454</v>
+        <v>14.57686153380922</v>
       </c>
       <c r="R10">
-        <v>69.46054159647454</v>
+        <v>131.191753804283</v>
       </c>
       <c r="S10">
-        <v>0.004715525875184613</v>
+        <v>0.0005835134395481122</v>
       </c>
       <c r="T10">
-        <v>0.004715525875184613</v>
+        <v>0.0005835134395481122</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.6621806104999</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H11">
-        <v>13.6621806104999</v>
+        <v>466.172821</v>
       </c>
       <c r="I11">
-        <v>0.06989046519283849</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J11">
-        <v>0.06989046519283849</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.08032284433198</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N11">
-        <v>1.08032284433198</v>
+        <v>40.155898</v>
       </c>
       <c r="O11">
-        <v>0.01433664785092544</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P11">
-        <v>0.01433664785092544</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q11">
-        <v>14.75956581691248</v>
+        <v>2079.954250049806</v>
       </c>
       <c r="R11">
-        <v>14.75956581691248</v>
+        <v>18719.58825044826</v>
       </c>
       <c r="S11">
-        <v>0.001001994987607087</v>
+        <v>0.08326080725499749</v>
       </c>
       <c r="T11">
-        <v>0.001001994987607087</v>
+        <v>0.08326080725499749</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.6621806104999</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H12">
-        <v>13.6621806104999</v>
+        <v>18.026882</v>
       </c>
       <c r="I12">
-        <v>0.06989046519283849</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J12">
-        <v>0.06989046519283849</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.4982525109528</v>
+        <v>1.57413</v>
       </c>
       <c r="N12">
-        <v>62.4982525109528</v>
+        <v>4.72239</v>
       </c>
       <c r="O12">
-        <v>0.8293959923635609</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P12">
-        <v>0.8293959923635609</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q12">
-        <v>853.8624136452661</v>
+        <v>9.45888525422</v>
       </c>
       <c r="R12">
-        <v>853.8624136452661</v>
+        <v>85.12996728797999</v>
       </c>
       <c r="S12">
-        <v>0.0579668717353652</v>
+        <v>0.0003786402619095544</v>
       </c>
       <c r="T12">
-        <v>0.0579668717353652</v>
+        <v>0.0003786402619095544</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.6621806104999</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H13">
-        <v>13.6621806104999</v>
+        <v>18.026882</v>
       </c>
       <c r="I13">
-        <v>0.06989046519283849</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J13">
-        <v>0.06989046519283849</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.7753606251016</v>
+        <v>62.503947</v>
       </c>
       <c r="N13">
-        <v>11.7753606251016</v>
+        <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.1562673597855136</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P13">
-        <v>0.1562673597855136</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q13">
-        <v>160.8771036139071</v>
+        <v>375.5837590344181</v>
       </c>
       <c r="R13">
-        <v>160.8771036139071</v>
+        <v>3380.253831309762</v>
       </c>
       <c r="S13">
-        <v>0.01092159846986621</v>
+        <v>0.01503466096349152</v>
       </c>
       <c r="T13">
-        <v>0.01092159846986621</v>
+        <v>0.01503466096349152</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.9388049601407</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H14">
-        <v>13.9388049601407</v>
+        <v>18.026882</v>
       </c>
       <c r="I14">
-        <v>0.07130556905006635</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J14">
-        <v>0.07130556905006635</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.08032284433198</v>
+        <v>0.182903</v>
       </c>
       <c r="N14">
-        <v>1.08032284433198</v>
+        <v>0.548709</v>
       </c>
       <c r="O14">
-        <v>0.01433664785092544</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P14">
-        <v>0.01433664785092544</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q14">
-        <v>15.05840942112791</v>
+        <v>1.099056932815333</v>
       </c>
       <c r="R14">
-        <v>15.05840942112791</v>
+        <v>9.891512395338001</v>
       </c>
       <c r="S14">
-        <v>0.00102228283328065</v>
+        <v>4.39953751113588E-05</v>
       </c>
       <c r="T14">
-        <v>0.00102228283328065</v>
+        <v>4.39953751113588E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.9388049601407</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H15">
-        <v>13.9388049601407</v>
+        <v>18.026882</v>
       </c>
       <c r="I15">
-        <v>0.07130556905006635</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J15">
-        <v>0.07130556905006635</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>62.4982525109528</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N15">
-        <v>62.4982525109528</v>
+        <v>0.281423</v>
       </c>
       <c r="O15">
-        <v>0.8293959923635609</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P15">
-        <v>0.8293959923635609</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q15">
-        <v>871.1509520997949</v>
+        <v>0.5636865792317778</v>
       </c>
       <c r="R15">
-        <v>871.1509520997949</v>
+        <v>5.073179213086</v>
       </c>
       <c r="S15">
-        <v>0.05914055320332819</v>
+        <v>2.25644384363368E-05</v>
       </c>
       <c r="T15">
-        <v>0.05914055320332819</v>
+        <v>2.25644384363368E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.9388049601407</v>
+        <v>6.008960666666667</v>
       </c>
       <c r="H16">
-        <v>13.9388049601407</v>
+        <v>18.026882</v>
       </c>
       <c r="I16">
-        <v>0.07130556905006635</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="J16">
-        <v>0.07130556905006635</v>
+        <v>0.0186995527069248</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7753606251016</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N16">
-        <v>11.7753606251016</v>
+        <v>40.155898</v>
       </c>
       <c r="O16">
-        <v>0.1562673597855136</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P16">
-        <v>0.1562673597855136</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q16">
-        <v>164.1344550886117</v>
+        <v>80.43173720555956</v>
       </c>
       <c r="R16">
-        <v>164.1344550886117</v>
+        <v>723.885634850036</v>
       </c>
       <c r="S16">
-        <v>0.01114273301345751</v>
+        <v>0.003219691667976035</v>
       </c>
       <c r="T16">
-        <v>0.01114273301345751</v>
+        <v>0.003219691667976035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>133.1709713333333</v>
+      </c>
+      <c r="H17">
+        <v>399.512914</v>
+      </c>
+      <c r="I17">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="J17">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.57413</v>
+      </c>
+      <c r="N17">
+        <v>4.72239</v>
+      </c>
+      <c r="O17">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P17">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q17">
+        <v>209.62842110494</v>
+      </c>
+      <c r="R17">
+        <v>1886.65578994446</v>
+      </c>
+      <c r="S17">
+        <v>0.008391449746728761</v>
+      </c>
+      <c r="T17">
+        <v>0.008391449746728761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>133.1709713333333</v>
+      </c>
+      <c r="H18">
+        <v>399.512914</v>
+      </c>
+      <c r="I18">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="J18">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>62.503947</v>
+      </c>
+      <c r="N18">
+        <v>187.511841</v>
+      </c>
+      <c r="O18">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P18">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q18">
+        <v>8323.711334157188</v>
+      </c>
+      <c r="R18">
+        <v>74913.40200741468</v>
+      </c>
+      <c r="S18">
+        <v>0.3331991196551097</v>
+      </c>
+      <c r="T18">
+        <v>0.3331991196551098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>133.1709713333333</v>
+      </c>
+      <c r="H19">
+        <v>399.512914</v>
+      </c>
+      <c r="I19">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="J19">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.182903</v>
+      </c>
+      <c r="N19">
+        <v>0.548709</v>
+      </c>
+      <c r="O19">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P19">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q19">
+        <v>24.35737016978067</v>
+      </c>
+      <c r="R19">
+        <v>219.216331528026</v>
+      </c>
+      <c r="S19">
+        <v>0.000975028322327845</v>
+      </c>
+      <c r="T19">
+        <v>0.000975028322327845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>133.1709713333333</v>
+      </c>
+      <c r="H20">
+        <v>399.512914</v>
+      </c>
+      <c r="I20">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="J20">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.281423</v>
+      </c>
+      <c r="O20">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P20">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q20">
+        <v>12.49245808851356</v>
+      </c>
+      <c r="R20">
+        <v>112.432122796622</v>
+      </c>
+      <c r="S20">
+        <v>0.0005000745304969831</v>
+      </c>
+      <c r="T20">
+        <v>0.0005000745304969831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>133.1709713333333</v>
+      </c>
+      <c r="H21">
+        <v>399.512914</v>
+      </c>
+      <c r="I21">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="J21">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N21">
+        <v>40.155898</v>
+      </c>
+      <c r="O21">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P21">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q21">
+        <v>1782.533313807419</v>
+      </c>
+      <c r="R21">
+        <v>16042.79982426677</v>
+      </c>
+      <c r="S21">
+        <v>0.07135501305520424</v>
+      </c>
+      <c r="T21">
+        <v>0.07135501305520424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.89372566666666</v>
+      </c>
+      <c r="H22">
+        <v>53.681177</v>
+      </c>
+      <c r="I22">
+        <v>0.05568428298810961</v>
+      </c>
+      <c r="J22">
+        <v>0.05568428298810962</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.57413</v>
+      </c>
+      <c r="N22">
+        <v>4.72239</v>
+      </c>
+      <c r="O22">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P22">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q22">
+        <v>28.16705038367</v>
+      </c>
+      <c r="R22">
+        <v>253.50345345303</v>
+      </c>
+      <c r="S22">
+        <v>0.001127530258360439</v>
+      </c>
+      <c r="T22">
+        <v>0.001127530258360439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.89372566666666</v>
+      </c>
+      <c r="H23">
+        <v>53.681177</v>
+      </c>
+      <c r="I23">
+        <v>0.05568428298810961</v>
+      </c>
+      <c r="J23">
+        <v>0.05568428298810962</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>62.503947</v>
+      </c>
+      <c r="N23">
+        <v>187.511841</v>
+      </c>
+      <c r="O23">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P23">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q23">
+        <v>1118.428480701873</v>
+      </c>
+      <c r="R23">
+        <v>10065.85632631686</v>
+      </c>
+      <c r="S23">
+        <v>0.04477082039568343</v>
+      </c>
+      <c r="T23">
+        <v>0.04477082039568345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.89372566666666</v>
+      </c>
+      <c r="H24">
+        <v>53.681177</v>
+      </c>
+      <c r="I24">
+        <v>0.05568428298810961</v>
+      </c>
+      <c r="J24">
+        <v>0.05568428298810962</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.182903</v>
+      </c>
+      <c r="N24">
+        <v>0.548709</v>
+      </c>
+      <c r="O24">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P24">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q24">
+        <v>3.272816105610333</v>
+      </c>
+      <c r="R24">
+        <v>29.455344950493</v>
+      </c>
+      <c r="S24">
+        <v>0.0001310112041857403</v>
+      </c>
+      <c r="T24">
+        <v>0.0001310112041857403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.89372566666666</v>
+      </c>
+      <c r="H25">
+        <v>53.681177</v>
+      </c>
+      <c r="I25">
+        <v>0.05568428298810961</v>
+      </c>
+      <c r="J25">
+        <v>0.05568428298810962</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.281423</v>
+      </c>
+      <c r="O25">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P25">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q25">
+        <v>1.678568652763444</v>
+      </c>
+      <c r="R25">
+        <v>15.107117874871</v>
+      </c>
+      <c r="S25">
+        <v>6.719329574613061E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.719329574613062E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.89372566666666</v>
+      </c>
+      <c r="H26">
+        <v>53.681177</v>
+      </c>
+      <c r="I26">
+        <v>0.05568428298810961</v>
+      </c>
+      <c r="J26">
+        <v>0.05568428298810962</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N26">
+        <v>40.155898</v>
+      </c>
+      <c r="O26">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P26">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q26">
+        <v>239.5128742368829</v>
+      </c>
+      <c r="R26">
+        <v>2155.615868131946</v>
+      </c>
+      <c r="S26">
+        <v>0.009587727834133865</v>
+      </c>
+      <c r="T26">
+        <v>0.009587727834133865</v>
       </c>
     </row>
   </sheetData>
